--- a/biology/Médecine/Liste_de_phobies/Liste_de_phobies.xlsx
+++ b/biology/Médecine/Liste_de_phobies/Liste_de_phobies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les suffixes français -phobie, -phobique, -phobe (du grec ancien φόβος / phóbos, φοβία / phobía) sont utilisés en tant qu'usage technique dans la psychiatrie pour construire des mots décrivant des peurs irrationnelles comme étant des troubles psychiatriques (ex. agoraphobie), dans la chimie décrivant des aversions chimiques (hydrophobie), en biologie décrivant des organismes intolérants à certaines conditions (ex. halophobie), et en médecine hypersensibles à des stimuli plus ou moins intenses (ex. photophobie).
 Cet article présente une liste de phobies non exhaustive, dans une approche phénoménologique, descriptive et comportementaliste.
@@ -512,143 +524,892 @@
           <t>Phobies au sens psychologique du terme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Certaines sont de véritables phobies, au sens psychiatrique du terme, pour d'autres, il s'agit surtout de réaction de peur ou d'appréhension. Certains sont inventées et n'ont jamais fait l'objet d'observation. La plupart de ces termes sont d'un emploi rarissime, voire inexistant, et sont à considérer comme des curiosités lexicales[1]. Sont alors observés, dans trois cas :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Certaines sont de véritables phobies, au sens psychiatrique du terme, pour d'autres, il s'agit surtout de réaction de peur ou d'appréhension. Certains sont inventées et n'ont jamais fait l'objet d'observation. La plupart de ces termes sont d'un emploi rarissime, voire inexistant, et sont à considérer comme des curiosités lexicales. Sont alors observés, dans trois cas :
 comme des peurs irrationnelles, excessives, mais que la personne parvient à maîtriser ;
 comme des phobies proprement dites, ce qui veut dire que la confrontation déclenche une angoisse majeure, un état de panique, que le patient commence à éviter tout ce qui pourrait lui déclencher une crise. En dehors des crises, et s'il n'y a pas de confrontation prévue avec l'objet de sa peur, il n'existe pas de symptôme ;
-enfin, ces symptômes peuvent être vécus sur un mode obsessionnel, et faire l'objet de ruminations douloureuses permanentes, que rien ne vient rassurer, la souffrance psychique est alors constante (exemple : la cancérophobie : aucun examen médical ne parvient à rassurer le patient sur le fait qu'il n'est pas malade) ; ils peuvent enfin s'intégrer à d'autres troubles psychiatriques.
-Liste de termes en -phobie
-(par ordre alphabétique)
-A
-Ablutophobie – Peur de se noyer[2].
-Acarophobie[réf. nécessaire] – Peur des parasites de la peau, des acariens[3].
+enfin, ces symptômes peuvent être vécus sur un mode obsessionnel, et faire l'objet de ruminations douloureuses permanentes, que rien ne vient rassurer, la souffrance psychique est alors constante (exemple : la cancérophobie : aucun examen médical ne parvient à rassurer le patient sur le fait qu'il n'est pas malade) ; ils peuvent enfin s'intégrer à d'autres troubles psychiatriques.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Phobies au sens psychologique du terme</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste de termes en -phobie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(par ordre alphabétique)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Phobies au sens psychologique du terme</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste de termes en -phobie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ablutophobie – Peur de se noyer.
+Acarophobie[réf. nécessaire] – Peur des parasites de la peau, des acariens.
 Achluophobie – Peur de l'obscurité et du noir.
 Achmophobie/Aichmophobie – Peur des objets pointus (aiguilles, ciseaux, couteaux, seringues par exemple);
 Acrophobie – Peur des hauteurs ; s'accompagne souvent de vertiges.
-Administrativophobie – Peur des relations avec l'administration et des courriers administratifs[4].
-Aérodromophobie – Peur de l'avion, des voyages en avion[5].
-Aérophobie – Peur de l'air et du vent[6].
-Affectophobie – Peur de montrer ses émotions[7].
+Administrativophobie – Peur des relations avec l'administration et des courriers administratifs.
+Aérodromophobie – Peur de l'avion, des voyages en avion.
+Aérophobie – Peur de l'air et du vent.
+Affectophobie – Peur de montrer ses émotions.
 Agoraphobie – Peur des espaces publics et, par extension, de la foule ; plus généralement, des espaces où la fuite est rendue difficile (foule, mais aussi lieux déserts).
 Algophobie – Peur de la douleur.
-Alopophobie[réf. nécessaire] – Peur de se dégarnir ou peur des chauves[8].
-Amatophobie – Peur de la poussière[9].
-Amaxophobie – Peur de conduire[10],[11],[12], peur des véhicules[13],[14] ou d'être dans un véhicule[15],[16], peur des automobiles[17].
+Alopophobie[réf. nécessaire] – Peur de se dégarnir ou peur des chauves.
+Amatophobie – Peur de la poussière.
+Amaxophobie – Peur de conduire peur des véhicules, ou d'être dans un véhicule peur des automobiles.
 Anginophobie – Peur de l’étouffement, notamment par des angines de poitrine.
-Angrophobie – Peur de se mettre en colère[11],[18].
-Anthropophobie – Peur des gens ou d'être en leur compagnie, une forme de phobie sociale[19].
-Anuptaphobie – Peur du célibat[20].
-Apéirophobie – Peur de l'infini[21], classée aussi comme une obsession[22].
+Angrophobie – Peur de se mettre en colère,.
+Anthropophobie – Peur des gens ou d'être en leur compagnie, une forme de phobie sociale.
+Anuptaphobie – Peur du célibat.
+Apéirophobie – Peur de l'infini, classée aussi comme une obsession.
 Apiphobie – Peur des abeilles, guêpes et frelons.
-Apopathodiaphulatophobie – Peur d'être constipé[23] ou de la constipation en elle-même[24].
-Apopatophobie – Peur d'aller à la selle[25],[26].
-Aquaphobie – Peur de l’eau[27].
+Apopathodiaphulatophobie – Peur d'être constipé ou de la constipation en elle-même.
+Apopatophobie – Peur d'aller à la selle,.
+Aquaphobie – Peur de l’eau.
 Arachibutyrophobie – Peur d'avoir du beurre de cacahuètes collé au palais.
-Arithmophobie – Peur des chiffres, des nombres[28].
-Ascensumophobie - Peur des ascenseurs[29] .
+Arithmophobie – Peur des chiffres, des nombres.
+Ascensumophobie - Peur des ascenseurs .
 Astraphobie – Peur du tonnerre.
-Atélophobie – Peur de l'imperfection, de ne jamais être assez bien[30].
-Athazagoraphobie – Peur d'être oublié ou ignoré[31], ainsi que la peur d'oublier[32][réf. à confirmer].
+Atélophobie – Peur de l'imperfection, de ne jamais être assez bien.
+Athazagoraphobie – Peur d'être oublié ou ignoré, ainsi que la peur d'oublier[réf. à confirmer].
 Atychiphobie – Peur de l’échec.
-Automysophobie – Peur d'être sale, de sentir mauvais[33].
-Autophobie – Peur de la solitude[34].
-Aviophobie – Peur de prendre l'avion[35].
-B
-Bacillophobie – Peur des bacilles, des bactéries[36],[37].
-Bananaphobie – Peur des bananes[38].
-Basophobie – Peur de marcher ou de tomber en marchant[39].
+Automysophobie – Peur d'être sale, de sentir mauvais.
+Autophobie – Peur de la solitude.
+Aviophobie – Peur de prendre l'avion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Phobies au sens psychologique du terme</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste de termes en -phobie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bacillophobie – Peur des bacilles, des bactéries,.
+Bananaphobie – Peur des bananes.
+Basophobie – Peur de marcher ou de tomber en marchant.
 Bélénophobie – Peur des aiguilles et plus spécialement phobie des seringues.
-Blemmophobie – Peur du regard des autres (porté notamment sur le corps)[40].
-Brontophobie – Peur du tonnerre et des tempêtes[41]
-C
-Cancérophobie – Peur du cancer[42].
+Blemmophobie – Peur du regard des autres (porté notamment sur le corps).
+Brontophobie – Peur du tonnerre et des tempêtes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Phobies au sens psychologique du terme</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste de termes en -phobie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cancérophobie – Peur du cancer.
 Cardiophobie – Peur du cœur ou peur d'un développement d'une maladie cardiovasculaire.
-Carminophobie - Peur d'avoir des gaz ou de lâcher un vent[43].
-Carpophobie – Peur des fruits[44].
-Catapédaphobie – Peur de sauter[17].
-Cherophobie – Peur de la joie[45].
-Claustrophobie – Peur des espaces confinés[46].
-Coïmetrophobie - Peur des cimetières[47].
-Coulrophobie – Peur des clowns[48].
-D
-Dentophobie – Peur du dentiste[17].
-Dysmorphophobie – trouble mental caractérisé par une idée obsessive qu'une partie de son corps, voire son corps au complet, est rempli de défauts.
-E
-Émétophobie – Peur de vomir.
+Carminophobie - Peur d'avoir des gaz ou de lâcher un vent.
+Carpophobie – Peur des fruits.
+Catapédaphobie – Peur de sauter.
+Cherophobie – Peur de la joie.
+Claustrophobie – Peur des espaces confinés.
+Coïmetrophobie - Peur des cimetières.
+Coulrophobie – Peur des clowns.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Phobies au sens psychologique du terme</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste de termes en -phobie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Dentophobie – Peur du dentiste.
+Dysmorphophobie – trouble mental caractérisé par une idée obsessive qu'une partie de son corps, voire son corps au complet, est rempli de défauts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Phobies au sens psychologique du terme</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste de termes en -phobie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Émétophobie – Peur de vomir.
 Epistaxiophobie – Peur des saignements de nez.
 Éreutophobie/Érythrophobie – Peur de rougir en public.
-Ergophobie (en) – Peur de travailler.
-G
-Géphyrophobie – Peur des ponts (ou de traverser les ponts).
+Ergophobie (en) – Peur de travailler.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Phobies au sens psychologique du terme</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Liste de termes en -phobie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Géphyrophobie – Peur des ponts (ou de traverser les ponts).
 Gérascophobie (en) : peur de vieillir, de l'usure du temps qui passe.
 Germophobie – Peur des germes.
 Glossophobie – Peur de parler en public.
-Gymnophobie – Peur de la nudité.
-H
-Halitophobie – Peur d'avoir mauvaise haleine[49].
+Gymnophobie – Peur de la nudité.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Phobies au sens psychologique du terme</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Liste de termes en -phobie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Halitophobie – Peur d'avoir mauvaise haleine.
 Haptophobie – Peur d'être touché.
 Hématophobie – Peur du contact et de la vue du sang.
-Hodophobie - Peur des voyages[50],[51].
+Hodophobie - Peur des voyages,.
 Hydrophobie/Aquaphobie – Peur morbide de l'eau.
 Hylophobie – Peur des forêts.
-Hypégiaphobie – Peur des responsabilités.
-I
-K
-Kénophobie – Peur de l'obscurité.
-Kéraunophobie – Crainte morbide de la foudre et des orages[33].
-L
-Laxophobie – Peur d’être pris de diarrhées impérieuses en public, en dehors de chez soi, et de ne pas arriver à se retenir.
-Leucosélophobie – Peur de la page blanche (blocage de l'écrivain)[52].
-Lilapsophobie - Peur des tornades.
-M
-Maskaphobie – Peur des masques[53].
+Hypégiaphobie – Peur des responsabilités.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Phobies au sens psychologique du terme</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Liste de termes en -phobie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Phobies au sens psychologique du terme</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Liste de termes en -phobie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Kénophobie – Peur de l'obscurité.
+Kéraunophobie – Crainte morbide de la foudre et des orages.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Phobies au sens psychologique du terme</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Liste de termes en -phobie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Laxophobie – Peur d’être pris de diarrhées impérieuses en public, en dehors de chez soi, et de ne pas arriver à se retenir.
+Leucosélophobie – Peur de la page blanche (blocage de l'écrivain).
+Lilapsophobie - Peur des tornades.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Phobies au sens psychologique du terme</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Liste de termes en -phobie</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Maskaphobie – Peur des masques.
 Mysophobie – Peur de la saleté, de la contamination par les microbes.
-Mythophobie - Crainte des contes et légendes[54].
-N
-Nanopabulophobie – Peur des nains de jardin à brouette[55].
-Natalophobie – Peur de Noël[56].
-Nécrophobie – Peur des cadavres[57].
+Mythophobie - Crainte des contes et légendes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Phobies au sens psychologique du terme</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Liste de termes en -phobie</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Nanopabulophobie – Peur des nains de jardin à brouette.
+Natalophobie – Peur de Noël.
+Nécrophobie – Peur des cadavres.
 Néophobie – Peur de l'inédit.
 Néophobie alimentaire – Peur de manger ou d’essayer de manger de nouveaux mets.
-Nomophobie – Peur d'être séparé de son téléphone portable[58]. Cette phobie désignerait aussi la peur excessive des lois.
+Nomophobie – Peur d'être séparé de son téléphone portable. Cette phobie désignerait aussi la peur excessive des lois.
 Nosocomephobie – Peur des hôpitaux, cliniques et centres de soin en général.
-Nosophobie – Peur de la maladie, d'être malade[59].
-Nudophobie/Gymnophobie – peur ou réprobation de la nudité humaine.
-O
-Ochlophobie/Démophobie – Peur de la foule.
-Odontophobie – Peur du chirurgien dentiste ou des soins bucco-dentaires[60].
+Nosophobie – Peur de la maladie, d'être malade.
+Nudophobie/Gymnophobie – peur ou réprobation de la nudité humaine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Phobies au sens psychologique du terme</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Liste de termes en -phobie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Ochlophobie/Démophobie – Peur de la foule.
+Odontophobie – Peur du chirurgien dentiste ou des soins bucco-dentaires.
 Oikophobie - Aversion pour le milieu familial, de la maison ou du contenu d'une maison et par extension, désir de voyager, haine de sa propre culture — si considéré comme l'antithèse de xénophobie — ou de l'occident (usage suggéré par Roger Scruton).
-Ombrophobie - Peur de la pluie[61].
-P
-Pantophobie – Peur de tout[62].
+Ombrophobie - Peur de la pluie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Phobies au sens psychologique du terme</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Liste de termes en -phobie</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Pantophobie – Peur de tout.
 Paraskevidékatriaphobie – Peur du vendredi 13.
-Pédiophobie – Peur des poupées[63] .
-Pédophobie – Peur des enfants[64],[65].
-Pharmacophobie – Peur des médicaments[66].
-Phasmophobie – Peur des fantômes[67].
+Pédiophobie – Peur des poupées .
+Pédophobie – Peur des enfants,.
+Pharmacophobie – Peur des médicaments.
+Phasmophobie – Peur des fantômes.
 Phobie de type sang-injection-blessure – Sous-type de phobies spécifiques classifié dans le DSM-IV.
 Phobie sociale – Peur des ou de certaines situations sociales.
-Podophobie - Peur des pieds[68].
-Pyrophobie – Peur du feu[69].
-R
-S
-Scopophobie – Peur d’attirer l’attention sur soi en public[70].
-Sélénophobie – Peur de la lune[71].
-Somniphobie – Peur de dormir[72],[73],[74],[75].
-Stasophobie – Peur d'avoir à rester debout[76].
-Submécanophobie - Peur des objets construits par l'Homme totalement ou partiellement immergés sous l'eau.
-T
-Taphophobie - Peur des tombes ou d'être enterré vif[47].
+Podophobie - Peur des pieds.
+Pyrophobie – Peur du feu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Phobies au sens psychologique du terme</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Liste de termes en -phobie</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Phobies au sens psychologique du terme</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Liste de termes en -phobie</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Scopophobie – Peur d’attirer l’attention sur soi en public.
+Sélénophobie – Peur de la lune.
+Somniphobie – Peur de dormir.
+Stasophobie – Peur d'avoir à rester debout.
+Submécanophobie - Peur des objets construits par l'Homme totalement ou partiellement immergés sous l'eau.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Phobies au sens psychologique du terme</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Liste de termes en -phobie</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Taphophobie - Peur des tombes ou d'être enterré vif.
 Téléphonophobie – Peur de répondre au téléphone.
 Thalassophobie – Peur de la mer, des océans.
 Thanatophobie – Peur de la mort.
 Tocophobie – Peur d'accoucher.
-Trypophobie – Peur des trous[77].
-X
-Xénoglossophobie : Peur des langues étrangères[78],[79].
-Liste de termes concernant les phobies animales
-Ailurophobie – Peur des chats.
+Trypophobie – Peur des trous.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Phobies au sens psychologique du terme</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Liste de termes en -phobie</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Xénoglossophobie : Peur des langues étrangères,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Phobies au sens psychologique du terme</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Liste de termes concernant les phobies animales</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Ailurophobie – Peur des chats.
 Alektorophobie – Peur des poulets.
 Anthelmophobie – Peur des vers.
 Apiphobie – Peur des abeilles ; par extension, peur des insectes possédant un dard ou pouvant piquer.
@@ -659,11 +1420,11 @@
 Cynophobie – Peur des chiens.
 Entomophobie – Peur des insectes.
 Équinophobie/Hippophobie – Peur des chevaux, des équidés.
-Héliciphobie - Peur des escargots et des limaces[80].
+Héliciphobie - Peur des escargots et des limaces.
 Herpétophobie – Peur des reptiles ou amphibiens.
 Ichthyophobie – Peur des poissons.
 Lépidophobie - Peur des papillons.
-Musophobie – Peur des souris[81] ou rats.
+Musophobie – Peur des souris ou rats.
 Myrmécophobie – Peur des fourmis.
 Ocaphobie- Peur des oies.
 Octophobie- Peur des poulpes/pieuvres.
@@ -673,31 +1434,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_de_phobies</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Affections non psychologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Hydrophobie rabique – Peur morbide de l'eau, en tant que symptôme de la rage.
 Osmophobie – Hypersensibilité aux odeurs.
@@ -706,68 +1469,107 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_de_phobies</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Superstitions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Hexakosioihexekontahexaphobie – Peur du nombre 666[82].
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Hexakosioihexekontahexaphobie – Peur du nombre 666.
 Paraskevidékatriaphobie – Peur du vendredi 13.
 Tétraphobie – Peur du chiffre 4.
 Triskaïdékaphobie – Peur du nombre 13.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_de_phobies</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Discrimination</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le suffixe -phobie est utilisé pour suggérer quelque sentiment particulier d'anti-ethnicité ou anti-démographique, par exemple américanophobie, europhobie, francophobie et hispanophobie. Souvent un synonyme avec le préfixe « anti- » est dénoté (ex. antiaméricanisme). Des sentiments antireligieux sont exprimés par des termes tels que christianophobie et islamophobie. Souvent, les termes eux-mêmes peuvent être considérés comme racistes, par exemple « négrophobie »[réf. nécessaire]. Le terme opposé en -philie peut exister ou non, parfois en suffixe (francophilie), parfois en préfixe, comme dans le mot philosémite. Ces discriminations incluent (non exhaustif):
-Discriminations contre l'origine, la nationalité, l'ethnie
-Américanophobie - Hostilité et discrimination envers les Américains.
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le suffixe -phobie est utilisé pour suggérer quelque sentiment particulier d'anti-ethnicité ou anti-démographique, par exemple américanophobie, europhobie, francophobie et hispanophobie. Souvent un synonyme avec le préfixe « anti- » est dénoté (ex. antiaméricanisme). Des sentiments antireligieux sont exprimés par des termes tels que christianophobie et islamophobie. Souvent, les termes eux-mêmes peuvent être considérés comme racistes, par exemple « négrophobie »[réf. nécessaire]. Le terme opposé en -philie peut exister ou non, parfois en suffixe (francophilie), parfois en préfixe, comme dans le mot philosémite. Ces discriminations incluent (non exhaustif):
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Discrimination</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Discriminations contre l'origine, la nationalité, l'ethnie</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Américanophobie - Hostilité et discrimination envers les Américains.
 Anglophobie - Hostilité et discrimination envers les Anglais.
 Arabophobie - Hostilité et discrimination raciale ethnophobe envers les Arabes.
 Belgophobie - Hostilité et discrimination envers les Belges.
@@ -775,145 +1577,287 @@
 Francophobie - Hostilité et discrimination envers les Français.
 Germanophobie - Hostilité et discrimination envers les Allemands.
 Hispanophobie - Hostilité et discrimination envers les Espagnols.
-Nippophobie – Hostilité et discrimination envers les Japonais[83].
+Nippophobie – Hostilité et discrimination envers les Japonais.
 Romophobie - Hostilité et discrimination envers les Roms.
 Roumanophobie - Hostilité et discrimination envers les Roumains.
 Russophobie - Hostilité et discrimination envers les Russes.
 Sinophobie - Hostilité et discrimination envers les Chinois.
 Ukrainophobie - Hostilité et discrimination envers les Ukrainiens.
-Wallophobie - Hostilité et discrimination envers les Wallons[84]
-Xénophobie - Hostilité  et discrimination à ce qui est étranger (autre pays ou autre continent).
-Discrimination contre la religion et autre croyance ou pensée
-Athéophobie ou anti-athée - Critique, méfiance, hostilité, discrimination, répression et/ou persécution envers les athées et les non-croyants.
+Wallophobie - Hostilité et discrimination envers les Wallons
+Xénophobie - Hostilité  et discrimination à ce qui est étranger (autre pays ou autre continent).</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Discrimination</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Discrimination contre la religion et autre croyance ou pensée</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Athéophobie ou anti-athée - Critique, méfiance, hostilité, discrimination, répression et/ou persécution envers les athées et les non-croyants.
 Christianophobie - Critique, opposition, méfiance, hostilité, discrimination, répression et/ou persécution du christianisme.
 Islamophobie - Peur ou crainte de l'islam, hostilité, discrimination, répression et/ou persécution envers l'islam et les musulmans.
 Judéophobie - Désigne des formes d'opposition et de discrimination à la communauté juive, de l'antisémitisme en passant par l'antijudaïsme.
 Technophobie - Peur ou rejet du progrès scientifique et technologique.
-Végéphobie - Mépris, hostilité, haine, répression et discrimination envers les personnes végétariennes.
-Discrimination contre l’orientation sexuelle ou le Genre
-Acephobie – Peur, rejet ou discrimination des personnes asexuelles[85] et l'asexualité.
+Végéphobie - Mépris, hostilité, haine, répression et discrimination envers les personnes végétariennes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Discrimination</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Discrimination contre l’orientation sexuelle ou le Genre</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Acephobie – Peur, rejet ou discrimination des personnes asexuelles et l'asexualité.
 Biphobie – Attitude de peur, discrimination, ou une haine des personnes bisexuelles et la bisexualité.
 Hétérophobie (dans l'un des deux sens de ce mot) – Mépris, rejet ou haine envers des personnes, des pratiques ou des représentations hétérosexuelles et l'hétérosexualité.
 Homophobie – Mépris, rejet, discrimination, répression envers des personnes, des pratiques ou des représentations homosexuelles et l'homosexualité.
 Lesbophobie – Hostilité, discrimination envers les lesbiennes et le lesbianisme.
 Transphobie – Mépris, rejet, discrimination, répression envers des personnes trans et la transidentité.
 Gynéphobie ou gynécophobie – Sentiment de mépris ou d'hostilité à l'égard des femmes, discrimination sexiste envers les personnes féminines.
-Androphobie – Sentiment de mépris ou d'hostilité à l'égard des hommes, discrimination sexiste envers les personnes masculines.
-Discrimination contre l'âge
-Gérontophobie – Mépris, hostilité, haine, répression et discrimination, peur ou rejet des personnes âgées.
+Androphobie – Sentiment de mépris ou d'hostilité à l'égard des hommes, discrimination sexiste envers les personnes masculines.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Discrimination</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Discrimination contre l'âge</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Gérontophobie – Mépris, hostilité, haine, répression et discrimination, peur ou rejet des personnes âgées.
 Ephébiphobie – Mépris, hostilité, haine, répression et discrimination, peur ou rejet des adolescents.
-Pédophobie – Mépris, hostilité, haine, répression et discrimination, peur ou rejet des enfants.
-Discrimination contre la maladie et le handicap
-Sérophobie – Discrimination envers les personnes porteuses du VIH.
+Pédophobie – Mépris, hostilité, haine, répression et discrimination, peur ou rejet des enfants.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Discrimination</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Discrimination contre la maladie et le handicap</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Sérophobie – Discrimination envers les personnes porteuses du VIH.
 Psychophobie – Forme de discrimination et d'oppression à l'encontre d'un trouble psychique ou d'une personne présentant un trouble psychique.
 Handicapophobie – Aversion, traitement défavorable contre les personnes vivant un handicap, physique ou mental.
 Grossophobie – Mépris, rejet et discrimination des personnes en surpoids</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_de_phobies</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Biologie et chimie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
         <is>
           <t>Les biologistes utilisent les suffixes -phobie / -phobe pour décrire des comportements ou prédispositions de plantes et d’animaux dans certaines conditions.
 Acidophobie / Acidophobe – Préférence aux conditions non-acides.
 Chemophobie – Sensibilité aux produits chimiques.
 Héliophobie – Sensibilité à la lumière du soleil.
 Hydrophobie – Capacité à repousser l'eau ou à être insoluble dans l’eau.
-Lipophobie[86] – Sensibilité aux corps gras.
+Lipophobie – Sensibilité aux corps gras.
 Myrmécophobie – Action répulsive de plantes vis-à-vis des fourmis.
 Photophobie – Réponse phototropiste, ou tendance à rester hors de la lumière.
-Thermophobie – Sensibilité à la chaleur[87].</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Liste_de_phobies</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+Thermophobie – Sensibilité à la chaleur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>Couleurs</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Chlorophobie – Peur du vert[88].
-Cyanophobie – Peur du bleu[89].
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Chlorophobie – Peur du vert.
+Cyanophobie – Peur du bleu.
 Érythrophobie/Éreutophobie – Peur de rougir. Peur du rouge (non lexicalisé)[réf. souhaitée].
-Kénophobie – Peur du noir[90].
-Xanthophobie – Peur du jaune[91].</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Liste_de_phobies</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+Kénophobie – Peur du noir.
+Xanthophobie – Peur du jaune.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_phobies</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>Phobies fictives</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Eibohphobie – Peur des palindromes[92] (« aibohphobia » dans d’autres langues[93]), le mot étant lui-même un palindrome.
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Eibohphobie – Peur des palindromes (« aibohphobia » dans d’autres langues), le mot étant lui-même un palindrome.
 Hippopotomonstrosesquippedaliophobie - Peur des mots longs, dérivé de l'anglais hippopotomonstrosesquipedaliophobia est apparu pour la première fois dans la cinquième saison de l'émission britannique Brainiac : Science Abuse, en 2007, dans la bouche du présentateur Jon Tickle.
 Le dessinateur humoristique Gary Larson a inventé plusieurs phobies imaginaires. Le jeu de rôle L'Appel de Cthulhu a donné une place importante aux phobies dans son système de jeu : ce sont en effet des signes importants de la détérioration mentale des personnages à mesure qu'ils affrontent des dangers de plus en plus horrifiques. on y trouve notamment :
-Anatidaephobie – La « peur que quelque part, d'une façon ou d'une autre, un canard vous observe »[94].
-Luposlipaphobie – La « crainte excessive d'être poursuivi par des loups autour d'une table de cuisine sur le parquet fraîchement ciré en ne portant que des chaussettes aux pieds »[95],[96].</t>
+Anatidaephobie – La « peur que quelque part, d'une façon ou d'une autre, un canard vous observe ».
+Luposlipaphobie – La « crainte excessive d'être poursuivi par des loups autour d'une table de cuisine sur le parquet fraîchement ciré en ne portant que des chaussettes aux pieds »,.</t>
         </is>
       </c>
     </row>
